--- a/R_output_files/Tables/Normal_High_Abundance_Genes_And_Marker_Genes.xlsx
+++ b/R_output_files/Tables/Normal_High_Abundance_Genes_And_Marker_Genes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>99264</v>
+        <v>96396</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>96937</v>
+        <v>94140</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>61903</v>
+        <v>60108</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>56432</v>
+        <v>54893</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>38260</v>
+        <v>37154</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>37150</v>
+        <v>36085</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -524,11 +524,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gm26917</t>
+          <t>Psca</t>
         </is>
       </c>
       <c r="B8">
-        <v>22724</v>
+        <v>17428</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -546,11 +546,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Psca</t>
+          <t>mt-Atp6</t>
         </is>
       </c>
       <c r="B9">
-        <v>17950</v>
+        <v>13473</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -568,11 +568,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mt-Atp6</t>
+          <t>Dpcr1</t>
         </is>
       </c>
       <c r="B10">
-        <v>13874</v>
+        <v>9829</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -590,11 +590,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dpcr1</t>
+          <t>Krt8</t>
         </is>
       </c>
       <c r="B11">
-        <v>10123</v>
+        <v>6479</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -612,11 +612,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Krt8</t>
+          <t>mt-Co1</t>
         </is>
       </c>
       <c r="B12">
-        <v>6670</v>
+        <v>6061</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -634,55 +634,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Muc5ac</t>
+          <t>Gm26917</t>
         </is>
       </c>
       <c r="B13">
-        <v>6613</v>
+        <v>5763</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Muc5ac</t>
         </is>
       </c>
       <c r="B14">
-        <v>6243</v>
+        <v>4931</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mal</t>
+          <t>Lgals2</t>
         </is>
       </c>
       <c r="B15">
-        <v>5348</v>
+        <v>4805</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lgals2</t>
+          <t>Krt19</t>
         </is>
       </c>
       <c r="B16">
-        <v>4948</v>
+        <v>4695</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -722,11 +722,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Actg1</t>
+          <t>Rn7sk</t>
         </is>
       </c>
       <c r="B17">
-        <v>4887</v>
+        <v>4561</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -744,11 +744,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Krt19</t>
+          <t>Car2</t>
         </is>
       </c>
       <c r="B18">
-        <v>4833</v>
+        <v>4260</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -766,11 +766,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rn7sk</t>
+          <t>Gm23935</t>
         </is>
       </c>
       <c r="B19">
-        <v>4697</v>
+        <v>4228</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -788,20 +788,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gsta1</t>
+          <t>mt-Cytb</t>
         </is>
       </c>
       <c r="B20">
-        <v>4110</v>
+        <v>4202</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -810,20 +810,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gsdma2</t>
+          <t>Gsta4</t>
         </is>
       </c>
       <c r="B21">
-        <v>2598</v>
+        <v>4158</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -832,14 +832,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pgc</t>
+          <t>Gsta1</t>
         </is>
       </c>
       <c r="B22">
-        <v>1445</v>
+        <v>3992</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -854,20 +854,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anxa10</t>
+          <t>Gsto1</t>
         </is>
       </c>
       <c r="B23">
-        <v>989</v>
+        <v>3949</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -876,20 +876,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tff2</t>
+          <t>mt-Co2</t>
         </is>
       </c>
       <c r="B24">
-        <v>975</v>
+        <v>3829</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -898,20 +898,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ptgr1</t>
+          <t>Ahnak</t>
         </is>
       </c>
       <c r="B25">
-        <v>824</v>
+        <v>3771</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -920,20 +920,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sprr2a3</t>
+          <t>Sprr2a2</t>
         </is>
       </c>
       <c r="B26">
-        <v>823</v>
+        <v>3728</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -942,11 +942,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sprr2a1</t>
+          <t>Gsdma2</t>
         </is>
       </c>
       <c r="B27">
-        <v>777</v>
+        <v>1982</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -964,17 +964,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Krt20</t>
+          <t>Pgc</t>
         </is>
       </c>
       <c r="B28">
-        <v>684</v>
+        <v>1404</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -986,17 +986,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lgals4</t>
+          <t>Anxa10</t>
         </is>
       </c>
       <c r="B29">
-        <v>607</v>
+        <v>961</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1008,11 +1008,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Muc1</t>
+          <t>Tff2</t>
         </is>
       </c>
       <c r="B30">
-        <v>383</v>
+        <v>947</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1030,17 +1030,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cldn18</t>
+          <t>Ptgr1</t>
         </is>
       </c>
       <c r="B31">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1052,11 +1052,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sult1c2</t>
+          <t>Sprr2a1</t>
         </is>
       </c>
       <c r="B32">
-        <v>270</v>
+        <v>754</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1074,17 +1074,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clps</t>
+          <t>Krt20</t>
         </is>
       </c>
       <c r="B33">
-        <v>262</v>
+        <v>665</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1096,17 +1096,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Foxq1</t>
+          <t>Lgals4</t>
         </is>
       </c>
       <c r="B34">
-        <v>165</v>
+        <v>590</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1118,11 +1118,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pla2g1b</t>
+          <t>Muc1</t>
         </is>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>372</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -1140,11 +1140,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Il33</t>
+          <t>Cldn18</t>
         </is>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1156,28 +1156,160 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Sult1c2</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>263</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Clps</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>254</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sprr2a3</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>189</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Foxq1</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>161</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pla2g1b</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>119</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Il33</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Akr1b10</t>
         </is>
       </c>
-      <c r="B37">
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
